--- a/test/data/bansari_login.xlsx
+++ b/test/data/bansari_login.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Mobile Numbers</t>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Delete  Wishlisted Item</t>
   </si>
 </sst>
 </file>
@@ -34,7 +37,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -66,11 +69,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -379,23 +379,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="33.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>9512827616</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/bansari_login.xlsx
+++ b/test/data/bansari_login.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Delete  Wishlisted Item</t>
   </si>
 </sst>
 </file>
@@ -379,30 +376,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="2" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="33.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
         <v>9512827616</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/bansari_login.xlsx
+++ b/test/data/bansari_login.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>9512827616</v>
+        <v>9737279951</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>

--- a/test/data/bansari_login.xlsx
+++ b/test/data/bansari_login.xlsx
@@ -399,7 +399,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1">
-        <v>9737279951</v>
+        <v>9512827616</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
